--- a/VersionRecords/Version 5.1.7.2 20161215/版本Bug和特性计划及评审表v5.1.7.2.xlsx
+++ b/VersionRecords/Version 5.1.7.2 20161215/版本Bug和特性计划及评审表v5.1.7.2.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="135">
   <si>
     <t>No</t>
   </si>
@@ -291,6 +291,277 @@
   </si>
   <si>
     <t>吴永余、李傲</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复安全扫描漏洞“www.mgzf.com:80个人资料处存储型XSS”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterpc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整房间列表页-房间标题大小</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新特性</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterpc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱晓云</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复安全漏洞“www.mgzf.com消息读取处存在逻辑漏洞可在未登录情况下修改其他用户的消息状态”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter、renterpc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>growinglo过滤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新特性</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>王龙国</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复安全漏洞“蘑菇租房APP在查询心愿单功能存在水平越权查看关于其他userId的心愿单。”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部导航需修改不影响此功能，已录入禅道 bug 6217</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间详情页 拨打房东号码，分机号由四位修改为五位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复官网找房列表，品牌房源推荐，显示字符串的问题</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterpc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪林强</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复“三星S5支付宝服务窗中，访问找房列表，无法下拉的问题”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不紧急</t>
+  </si>
+  <si>
+    <t>房东解约租客不可在线支付</t>
+    <rPh sb="0" eb="1">
+      <t>fang'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zu'k</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu'ke</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zia'xian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'fu</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter、renterembed、renterembed-fe</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>武孟华</t>
+    <rPh sb="0" eb="1">
+      <t>w'm'h</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <rPh sb="0" eb="1">
+      <t>y'x'z</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改租客登记可以修改租客手机号</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zu'k</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiu'g</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zu'k</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shou'ij'h</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner、partnerpc</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <rPh sb="0" eb="1">
+      <t>c'b</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客登记】租约列表，房源地址不展示“单元”信息</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>partnerpc</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祥毅</t>
+    <rPh sb="0" eb="1">
+      <t>w'x'y</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客登记】租客登记电子合同，租客端查看的是纸质合同</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客登记】租客登记，录入付一押金自定义保存时报错，押金与租金不平</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客登记】修改租约为账单已结清未生效</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客登记】租客登记纸质合同勾选发送消息没有发送</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸质合同查看去掉‘’发送至邮箱‘’按钮</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈美</t>
+    <rPh sb="0" eb="1">
+      <t>chen'm</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东发起续租，租客未确认，订单详情点击查看合同，报错</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表点击联系房东按钮不显示房东姓名</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +569,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -486,6 +757,27 @@
       <name val="微软雅黑"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -542,7 +834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -676,19 +968,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -729,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,15 +1153,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -898,13 +1168,10 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1005,6 +1272,81 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1392,7 +1734,7 @@
   <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="A11" sqref="A11:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1487,492 +1829,1031 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A2" s="77">
+      <c r="A2" s="73">
         <v>1</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="80">
+      <c r="H2" s="76">
         <v>42718</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="80">
+      <c r="J2" s="76">
         <v>42718</v>
       </c>
-      <c r="K2" s="79"/>
-      <c r="L2" s="81" t="s">
+      <c r="K2" s="75"/>
+      <c r="L2" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="79" t="s">
+      <c r="M2" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="79" t="s">
+      <c r="N2" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="81" t="s">
+      <c r="O2" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="80">
+      <c r="P2" s="76">
         <v>42718</v>
       </c>
-      <c r="Q2" s="81" t="s">
+      <c r="Q2" s="77" t="s">
         <v>71</v>
       </c>
       <c r="R2" s="44"/>
       <c r="S2" s="44"/>
-      <c r="T2" s="52" t="s">
+      <c r="T2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="82"/>
-      <c r="V2" s="54"/>
-    </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="54"/>
-    </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="47"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="51"/>
+    </row>
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="88">
+        <v>1</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="92">
+        <v>42719</v>
+      </c>
+      <c r="I3" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="92">
+        <v>42719</v>
+      </c>
+      <c r="K3" s="91"/>
+      <c r="L3" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="91"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="95">
+        <v>6553</v>
+      </c>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="51"/>
+    </row>
+    <row r="4" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="88">
+        <v>2</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="92">
+        <v>42719</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="92">
+        <v>42719</v>
+      </c>
+      <c r="K4" s="91"/>
+      <c r="L4" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="97"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="93"/>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="54"/>
-    </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="45"/>
+    </row>
+    <row r="5" spans="1:22" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="88">
+        <v>3</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="92">
+        <v>42719</v>
+      </c>
+      <c r="I5" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="92">
+        <v>42719</v>
+      </c>
+      <c r="K5" s="91"/>
+      <c r="L5" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="97"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="44">
+        <v>6554</v>
+      </c>
       <c r="S5" s="44"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="54"/>
-    </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="47"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="45"/>
+    </row>
+    <row r="6" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="88">
+        <v>4</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="92">
+        <v>42719</v>
+      </c>
+      <c r="I6" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="92">
+        <v>42719</v>
+      </c>
+      <c r="K6" s="91"/>
+      <c r="L6" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="97"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="99"/>
       <c r="R6" s="44"/>
       <c r="S6" s="44"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="54"/>
-    </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="54"/>
-    </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="54"/>
-    </row>
-    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="45"/>
+    </row>
+    <row r="7" spans="1:22" s="105" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="88">
+        <v>5</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="92">
+        <v>42719</v>
+      </c>
+      <c r="I7" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="92">
+        <v>42719</v>
+      </c>
+      <c r="K7" s="88"/>
+      <c r="L7" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="97"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="44">
+        <v>6555</v>
+      </c>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="V7" s="104"/>
+    </row>
+    <row r="8" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="88">
+        <v>6</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="92">
+        <v>42719</v>
+      </c>
+      <c r="I8" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="92">
+        <v>42719</v>
+      </c>
+      <c r="K8" s="91"/>
+      <c r="L8" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="45"/>
+    </row>
+    <row r="9" spans="1:22" ht="33" x14ac:dyDescent="0.15">
+      <c r="A9" s="88">
+        <v>7</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="92">
+        <v>42719</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="92">
+        <v>42719</v>
+      </c>
+      <c r="K9" s="91"/>
+      <c r="L9" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="97"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="44">
+        <v>6499</v>
+      </c>
       <c r="S9" s="44"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="54"/>
-    </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="54"/>
-    </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="47"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="45"/>
+    </row>
+    <row r="10" spans="1:22" s="110" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="88">
+        <v>8</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="92">
+        <v>42719</v>
+      </c>
+      <c r="I10" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="92">
+        <v>42719</v>
+      </c>
+      <c r="K10" s="90"/>
+      <c r="L10" s="107" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="108">
+        <v>6407</v>
+      </c>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="109"/>
+    </row>
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A11" s="73">
+        <v>1</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="76">
+        <v>42718</v>
+      </c>
+      <c r="I11" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="76">
+        <v>42718</v>
+      </c>
+      <c r="K11" s="75"/>
+      <c r="L11" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="76">
+        <v>42718</v>
+      </c>
+      <c r="Q11" s="77" t="s">
+        <v>71</v>
+      </c>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="54"/>
-    </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="47"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="51"/>
+    </row>
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A12" s="73">
+        <v>2</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="76">
+        <v>42718</v>
+      </c>
+      <c r="I12" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="76">
+        <v>42718</v>
+      </c>
+      <c r="K12" s="75"/>
+      <c r="L12" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="76">
+        <v>42718</v>
+      </c>
+      <c r="Q12" s="77" t="s">
+        <v>71</v>
+      </c>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="54"/>
-    </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="44"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="51"/>
+    </row>
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A13" s="73">
+        <v>3</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="76">
+        <v>42718</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="76">
+        <v>42718</v>
+      </c>
+      <c r="K13" s="75"/>
+      <c r="L13" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="76">
+        <v>42718</v>
+      </c>
+      <c r="Q13" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" s="44">
+        <v>6381</v>
+      </c>
       <c r="S13" s="44"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="54"/>
-    </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="44"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="51"/>
+    </row>
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="73">
+        <v>4</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="76">
+        <v>42718</v>
+      </c>
+      <c r="I14" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="76">
+        <v>42718</v>
+      </c>
+      <c r="K14" s="75"/>
+      <c r="L14" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="76">
+        <v>42718</v>
+      </c>
+      <c r="Q14" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" s="44">
+        <v>6374</v>
+      </c>
       <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="54"/>
-    </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="54"/>
-    </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="44"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="51"/>
+    </row>
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="73">
+        <v>5</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="112" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="76">
+        <v>42718</v>
+      </c>
+      <c r="I15" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="76">
+        <v>42718</v>
+      </c>
+      <c r="K15" s="75"/>
+      <c r="L15" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="76">
+        <v>42718</v>
+      </c>
+      <c r="Q15" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" s="53">
+        <v>6348</v>
+      </c>
+      <c r="S15" s="53"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="51"/>
+    </row>
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A16" s="73">
+        <v>6</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="76">
+        <v>42718</v>
+      </c>
+      <c r="I16" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="76">
+        <v>42718</v>
+      </c>
+      <c r="K16" s="75"/>
+      <c r="L16" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="76">
+        <v>42718</v>
+      </c>
+      <c r="Q16" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16" s="44">
+        <v>6433</v>
+      </c>
       <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="54"/>
-    </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="44"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="51"/>
+    </row>
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A17" s="73">
+        <v>7</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="76">
+        <v>42718</v>
+      </c>
+      <c r="I17" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="76">
+        <v>42718</v>
+      </c>
+      <c r="K17" s="75"/>
+      <c r="L17" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="N17" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="76">
+        <v>42718</v>
+      </c>
+      <c r="Q17" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="R17" s="44">
+        <v>6482</v>
+      </c>
       <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="45"/>
-    </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="44"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="51"/>
+    </row>
+    <row r="18" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A18" s="73">
+        <v>8</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="76">
+        <v>42718</v>
+      </c>
+      <c r="I18" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="76">
+        <v>42718</v>
+      </c>
+      <c r="K18" s="75"/>
+      <c r="L18" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="N18" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="O18" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="76">
+        <v>42718</v>
+      </c>
+      <c r="Q18" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="R18" s="44">
+        <v>6290</v>
+      </c>
       <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="45"/>
-    </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="44"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="51"/>
+    </row>
+    <row r="19" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="73">
+        <v>9</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="76">
+        <v>42718</v>
+      </c>
+      <c r="I19" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="76">
+        <v>42718</v>
+      </c>
+      <c r="K19" s="75"/>
+      <c r="L19" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="N19" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="76">
+        <v>42718</v>
+      </c>
+      <c r="Q19" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19" s="44">
+        <v>6265</v>
+      </c>
       <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="45"/>
-    </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="44"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="51"/>
+    </row>
+    <row r="20" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A20" s="73">
+        <v>10</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="76">
+        <v>42718</v>
+      </c>
+      <c r="I20" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="76">
+        <v>42718</v>
+      </c>
+      <c r="K20" s="75"/>
+      <c r="L20" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="N20" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="O20" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="76">
+        <v>42718</v>
+      </c>
+      <c r="Q20" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="R20" s="44">
+        <v>6231</v>
+      </c>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
-      <c r="U20" s="55"/>
-    </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U20" s="111"/>
+      <c r="V20" s="51"/>
+    </row>
+    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -1993,9 +2874,9 @@
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
       <c r="T21" s="44"/>
-      <c r="U21" s="55"/>
-    </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U21" s="52"/>
+    </row>
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2016,9 +2897,9 @@
       <c r="R22" s="44"/>
       <c r="S22" s="44"/>
       <c r="T22" s="44"/>
-      <c r="U22" s="55"/>
-    </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U22" s="52"/>
+    </row>
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2036,12 +2917,12 @@
       <c r="O23" s="47"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="47"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="59"/>
-    </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="55"/>
+    </row>
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2059,12 +2940,12 @@
       <c r="O24" s="47"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="47"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="59"/>
-    </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="55"/>
+    </row>
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2082,12 +2963,12 @@
       <c r="O25" s="47"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="47"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="59"/>
-    </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="55"/>
+    </row>
+    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2105,12 +2986,12 @@
       <c r="O26" s="47"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="47"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="59"/>
-    </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="55"/>
+    </row>
+    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2128,12 +3009,12 @@
       <c r="O27" s="47"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="47"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="59"/>
-    </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="55"/>
+    </row>
+    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2151,12 +3032,12 @@
       <c r="O28" s="47"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="47"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
       <c r="U28" s="47"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2177,9 +3058,9 @@
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
-      <c r="U29" s="55"/>
-    </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U29" s="52"/>
+    </row>
+    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2200,9 +3081,9 @@
       <c r="R30" s="44"/>
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
-      <c r="U30" s="55"/>
-    </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U30" s="52"/>
+    </row>
+    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2223,9 +3104,9 @@
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
-      <c r="U31" s="55"/>
-    </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="U31" s="52"/>
+    </row>
+    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2243,10 +3124,10 @@
       <c r="O32" s="47"/>
       <c r="P32" s="39"/>
       <c r="Q32" s="47"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="59"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="55"/>
     </row>
     <row r="33" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
@@ -2269,7 +3150,7 @@
       <c r="R33" s="44"/>
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
-      <c r="U33" s="53" t="s">
+      <c r="U33" s="50" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2294,7 +3175,7 @@
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
-      <c r="U34" s="55"/>
+      <c r="U34" s="52"/>
     </row>
     <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="36"/>
@@ -2317,7 +3198,7 @@
       <c r="R35" s="44"/>
       <c r="S35" s="44"/>
       <c r="T35" s="44"/>
-      <c r="U35" s="55"/>
+      <c r="U35" s="52"/>
     </row>
     <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="36"/>
@@ -2340,7 +3221,7 @@
       <c r="R36" s="44"/>
       <c r="S36" s="44"/>
       <c r="T36" s="44"/>
-      <c r="U36" s="55"/>
+      <c r="U36" s="52"/>
     </row>
     <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="36"/>
@@ -2363,7 +3244,7 @@
       <c r="R37" s="44"/>
       <c r="S37" s="44"/>
       <c r="T37" s="44"/>
-      <c r="U37" s="55"/>
+      <c r="U37" s="52"/>
     </row>
     <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="36"/>
@@ -2386,7 +3267,7 @@
       <c r="R38" s="44"/>
       <c r="S38" s="44"/>
       <c r="T38" s="44"/>
-      <c r="U38" s="55"/>
+      <c r="U38" s="52"/>
     </row>
     <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="36"/>
@@ -2409,7 +3290,7 @@
       <c r="R39" s="44"/>
       <c r="S39" s="44"/>
       <c r="T39" s="44"/>
-      <c r="U39" s="55"/>
+      <c r="U39" s="52"/>
     </row>
     <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="36"/>
@@ -2432,7 +3313,7 @@
       <c r="R40" s="44"/>
       <c r="S40" s="44"/>
       <c r="T40" s="44"/>
-      <c r="U40" s="55"/>
+      <c r="U40" s="52"/>
     </row>
     <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="36"/>
@@ -2455,7 +3336,7 @@
       <c r="R41" s="44"/>
       <c r="S41" s="44"/>
       <c r="T41" s="44"/>
-      <c r="U41" s="55"/>
+      <c r="U41" s="52"/>
     </row>
     <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
@@ -2478,7 +3359,7 @@
       <c r="R42" s="44"/>
       <c r="S42" s="44"/>
       <c r="T42" s="44"/>
-      <c r="U42" s="55"/>
+      <c r="U42" s="52"/>
     </row>
     <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="36"/>
@@ -2501,7 +3382,7 @@
       <c r="R43" s="44"/>
       <c r="S43" s="44"/>
       <c r="T43" s="44"/>
-      <c r="U43" s="55"/>
+      <c r="U43" s="52"/>
     </row>
     <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="36"/>
@@ -2521,10 +3402,10 @@
       <c r="O44" s="47"/>
       <c r="P44" s="39"/>
       <c r="Q44" s="47"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="56"/>
-      <c r="U44" s="55"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="52"/>
     </row>
     <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="36"/>
@@ -2544,10 +3425,10 @@
       <c r="O45" s="47"/>
       <c r="P45" s="39"/>
       <c r="Q45" s="47"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="56"/>
-      <c r="T45" s="56"/>
-      <c r="U45" s="55"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="52"/>
     </row>
     <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="36"/>
@@ -2560,7 +3441,7 @@
       <c r="H46" s="39"/>
       <c r="I46" s="39"/>
       <c r="J46" s="39"/>
-      <c r="K46" s="51"/>
+      <c r="K46" s="48"/>
       <c r="L46" s="47"/>
       <c r="M46" s="47"/>
       <c r="N46" s="38"/>
@@ -2583,7 +3464,7 @@
       <c r="H47" s="39"/>
       <c r="I47" s="39"/>
       <c r="J47" s="39"/>
-      <c r="K47" s="51"/>
+      <c r="K47" s="48"/>
       <c r="L47" s="47"/>
       <c r="M47" s="47"/>
       <c r="N47" s="38"/>
@@ -2606,7 +3487,7 @@
       <c r="H48" s="39"/>
       <c r="I48" s="39"/>
       <c r="J48" s="39"/>
-      <c r="K48" s="51"/>
+      <c r="K48" s="48"/>
       <c r="L48" s="47"/>
       <c r="M48" s="47"/>
       <c r="N48" s="38"/>
@@ -2629,7 +3510,7 @@
       <c r="H49" s="39"/>
       <c r="I49" s="39"/>
       <c r="J49" s="39"/>
-      <c r="K49" s="51"/>
+      <c r="K49" s="48"/>
       <c r="L49" s="47"/>
       <c r="M49" s="47"/>
       <c r="N49" s="38"/>
@@ -2652,7 +3533,7 @@
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
       <c r="J50" s="39"/>
-      <c r="K50" s="51"/>
+      <c r="K50" s="48"/>
       <c r="L50" s="47"/>
       <c r="M50" s="47"/>
       <c r="N50" s="38"/>
@@ -2675,7 +3556,7 @@
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
       <c r="J51" s="39"/>
-      <c r="K51" s="51"/>
+      <c r="K51" s="48"/>
       <c r="L51" s="47"/>
       <c r="M51" s="47"/>
       <c r="N51" s="38"/>
@@ -2698,7 +3579,7 @@
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
       <c r="J52" s="39"/>
-      <c r="K52" s="51"/>
+      <c r="K52" s="48"/>
       <c r="L52" s="47"/>
       <c r="M52" s="47"/>
       <c r="N52" s="38"/>
@@ -2721,7 +3602,7 @@
       <c r="H53" s="46"/>
       <c r="I53" s="44"/>
       <c r="J53" s="46"/>
-      <c r="K53" s="51"/>
+      <c r="K53" s="48"/>
       <c r="L53" s="44"/>
       <c r="M53" s="44"/>
       <c r="N53" s="44"/>
@@ -2744,7 +3625,7 @@
       <c r="H54" s="46"/>
       <c r="I54" s="44"/>
       <c r="J54" s="46"/>
-      <c r="K54" s="51"/>
+      <c r="K54" s="48"/>
       <c r="L54" s="44"/>
       <c r="M54" s="44"/>
       <c r="N54" s="44"/>
@@ -2767,7 +3648,7 @@
       <c r="H55" s="46"/>
       <c r="I55" s="44"/>
       <c r="J55" s="46"/>
-      <c r="K55" s="51"/>
+      <c r="K55" s="48"/>
       <c r="L55" s="44"/>
       <c r="M55" s="44"/>
       <c r="N55" s="44"/>
@@ -2790,7 +3671,7 @@
       <c r="H56" s="46"/>
       <c r="I56" s="44"/>
       <c r="J56" s="46"/>
-      <c r="K56" s="51"/>
+      <c r="K56" s="48"/>
       <c r="L56" s="44"/>
       <c r="M56" s="44"/>
       <c r="N56" s="44"/>
@@ -2813,7 +3694,7 @@
       <c r="H57" s="46"/>
       <c r="I57" s="44"/>
       <c r="J57" s="46"/>
-      <c r="K57" s="51"/>
+      <c r="K57" s="48"/>
       <c r="L57" s="44"/>
       <c r="M57" s="44"/>
       <c r="N57" s="44"/>
@@ -2836,7 +3717,7 @@
       <c r="H58" s="46"/>
       <c r="I58" s="44"/>
       <c r="J58" s="46"/>
-      <c r="K58" s="51"/>
+      <c r="K58" s="48"/>
       <c r="L58" s="44"/>
       <c r="M58" s="44"/>
       <c r="N58" s="44"/>
@@ -2859,7 +3740,7 @@
       <c r="H59" s="46"/>
       <c r="I59" s="44"/>
       <c r="J59" s="46"/>
-      <c r="K59" s="51"/>
+      <c r="K59" s="48"/>
       <c r="L59" s="44"/>
       <c r="M59" s="44"/>
       <c r="N59" s="44"/>
@@ -2882,7 +3763,7 @@
       <c r="H60" s="46"/>
       <c r="I60" s="44"/>
       <c r="J60" s="46"/>
-      <c r="K60" s="51"/>
+      <c r="K60" s="48"/>
       <c r="L60" s="44"/>
       <c r="M60" s="44"/>
       <c r="N60" s="44"/>
@@ -2905,7 +3786,7 @@
       <c r="H61" s="46"/>
       <c r="I61" s="44"/>
       <c r="J61" s="46"/>
-      <c r="K61" s="51"/>
+      <c r="K61" s="48"/>
       <c r="L61" s="44"/>
       <c r="M61" s="44"/>
       <c r="N61" s="44"/>
@@ -2928,7 +3809,7 @@
       <c r="H62" s="46"/>
       <c r="I62" s="44"/>
       <c r="J62" s="46"/>
-      <c r="K62" s="51"/>
+      <c r="K62" s="48"/>
       <c r="L62" s="44"/>
       <c r="M62" s="44"/>
       <c r="N62" s="44"/>
@@ -2951,7 +3832,7 @@
       <c r="H63" s="46"/>
       <c r="I63" s="44"/>
       <c r="J63" s="46"/>
-      <c r="K63" s="51"/>
+      <c r="K63" s="48"/>
       <c r="L63" s="44"/>
       <c r="M63" s="44"/>
       <c r="N63" s="44"/>
@@ -2974,7 +3855,7 @@
       <c r="H64" s="46"/>
       <c r="I64" s="44"/>
       <c r="J64" s="46"/>
-      <c r="K64" s="51"/>
+      <c r="K64" s="48"/>
       <c r="L64" s="44"/>
       <c r="M64" s="44"/>
       <c r="N64" s="44"/>
@@ -2997,7 +3878,7 @@
       <c r="H65" s="46"/>
       <c r="I65" s="44"/>
       <c r="J65" s="46"/>
-      <c r="K65" s="51"/>
+      <c r="K65" s="48"/>
       <c r="L65" s="44"/>
       <c r="M65" s="44"/>
       <c r="N65" s="44"/>
@@ -3020,7 +3901,7 @@
       <c r="H66" s="46"/>
       <c r="I66" s="44"/>
       <c r="J66" s="46"/>
-      <c r="K66" s="51"/>
+      <c r="K66" s="48"/>
       <c r="L66" s="44"/>
       <c r="M66" s="44"/>
       <c r="N66" s="44"/>
@@ -3043,7 +3924,7 @@
       <c r="H67" s="46"/>
       <c r="I67" s="44"/>
       <c r="J67" s="46"/>
-      <c r="K67" s="51"/>
+      <c r="K67" s="48"/>
       <c r="L67" s="44"/>
       <c r="M67" s="44"/>
       <c r="N67" s="44"/>
@@ -3066,7 +3947,7 @@
       <c r="H68" s="46"/>
       <c r="I68" s="44"/>
       <c r="J68" s="46"/>
-      <c r="K68" s="51"/>
+      <c r="K68" s="48"/>
       <c r="L68" s="44"/>
       <c r="M68" s="44"/>
       <c r="N68" s="44"/>
@@ -3089,7 +3970,7 @@
       <c r="H69" s="46"/>
       <c r="I69" s="44"/>
       <c r="J69" s="46"/>
-      <c r="K69" s="51"/>
+      <c r="K69" s="48"/>
       <c r="L69" s="44"/>
       <c r="M69" s="44"/>
       <c r="N69" s="44"/>
@@ -3112,7 +3993,7 @@
       <c r="H70" s="46"/>
       <c r="I70" s="44"/>
       <c r="J70" s="46"/>
-      <c r="K70" s="51"/>
+      <c r="K70" s="48"/>
       <c r="L70" s="44"/>
       <c r="M70" s="44"/>
       <c r="N70" s="44"/>
@@ -3135,7 +4016,7 @@
       <c r="H71" s="46"/>
       <c r="I71" s="44"/>
       <c r="J71" s="46"/>
-      <c r="K71" s="51"/>
+      <c r="K71" s="48"/>
       <c r="L71" s="44"/>
       <c r="M71" s="44"/>
       <c r="N71" s="44"/>
@@ -3158,7 +4039,7 @@
       <c r="H72" s="46"/>
       <c r="I72" s="44"/>
       <c r="J72" s="46"/>
-      <c r="K72" s="51"/>
+      <c r="K72" s="48"/>
       <c r="L72" s="44"/>
       <c r="M72" s="44"/>
       <c r="N72" s="44"/>
@@ -3181,7 +4062,7 @@
       <c r="H73" s="46"/>
       <c r="I73" s="44"/>
       <c r="J73" s="46"/>
-      <c r="K73" s="51"/>
+      <c r="K73" s="48"/>
       <c r="L73" s="44"/>
       <c r="M73" s="44"/>
       <c r="N73" s="44"/>
@@ -3204,7 +4085,7 @@
       <c r="H74" s="46"/>
       <c r="I74" s="44"/>
       <c r="J74" s="46"/>
-      <c r="K74" s="51"/>
+      <c r="K74" s="48"/>
       <c r="L74" s="44"/>
       <c r="M74" s="44"/>
       <c r="N74" s="44"/>
@@ -3227,7 +4108,7 @@
       <c r="H75" s="46"/>
       <c r="I75" s="44"/>
       <c r="J75" s="46"/>
-      <c r="K75" s="51"/>
+      <c r="K75" s="48"/>
       <c r="L75" s="44"/>
       <c r="M75" s="44"/>
       <c r="N75" s="44"/>
@@ -3250,7 +4131,7 @@
       <c r="H76" s="46"/>
       <c r="I76" s="44"/>
       <c r="J76" s="46"/>
-      <c r="K76" s="51"/>
+      <c r="K76" s="48"/>
       <c r="L76" s="44"/>
       <c r="M76" s="44"/>
       <c r="N76" s="44"/>
@@ -3273,7 +4154,7 @@
       <c r="H77" s="46"/>
       <c r="I77" s="44"/>
       <c r="J77" s="46"/>
-      <c r="K77" s="51"/>
+      <c r="K77" s="48"/>
       <c r="L77" s="44"/>
       <c r="M77" s="44"/>
       <c r="N77" s="44"/>
@@ -3296,7 +4177,7 @@
       <c r="H78" s="46"/>
       <c r="I78" s="44"/>
       <c r="J78" s="46"/>
-      <c r="K78" s="51"/>
+      <c r="K78" s="48"/>
       <c r="L78" s="44"/>
       <c r="M78" s="44"/>
       <c r="N78" s="44"/>
@@ -3319,7 +4200,7 @@
       <c r="H79" s="46"/>
       <c r="I79" s="44"/>
       <c r="J79" s="46"/>
-      <c r="K79" s="51"/>
+      <c r="K79" s="48"/>
       <c r="L79" s="44"/>
       <c r="M79" s="44"/>
       <c r="N79" s="44"/>
@@ -3342,7 +4223,7 @@
       <c r="H80" s="46"/>
       <c r="I80" s="44"/>
       <c r="J80" s="46"/>
-      <c r="K80" s="51"/>
+      <c r="K80" s="48"/>
       <c r="L80" s="44"/>
       <c r="M80" s="44"/>
       <c r="N80" s="44"/>
@@ -3365,7 +4246,7 @@
       <c r="H81" s="46"/>
       <c r="I81" s="44"/>
       <c r="J81" s="46"/>
-      <c r="K81" s="51"/>
+      <c r="K81" s="48"/>
       <c r="L81" s="44"/>
       <c r="M81" s="44"/>
       <c r="N81" s="44"/>
@@ -3388,7 +4269,7 @@
       <c r="H82" s="46"/>
       <c r="I82" s="44"/>
       <c r="J82" s="46"/>
-      <c r="K82" s="51"/>
+      <c r="K82" s="48"/>
       <c r="L82" s="44"/>
       <c r="M82" s="44"/>
       <c r="N82" s="44"/>
@@ -3411,7 +4292,7 @@
       <c r="H83" s="46"/>
       <c r="I83" s="44"/>
       <c r="J83" s="46"/>
-      <c r="K83" s="51"/>
+      <c r="K83" s="48"/>
       <c r="L83" s="44"/>
       <c r="M83" s="44"/>
       <c r="N83" s="44"/>
@@ -3434,7 +4315,7 @@
       <c r="H84" s="46"/>
       <c r="I84" s="44"/>
       <c r="J84" s="46"/>
-      <c r="K84" s="51"/>
+      <c r="K84" s="48"/>
       <c r="L84" s="44"/>
       <c r="M84" s="44"/>
       <c r="N84" s="44"/>
@@ -3457,7 +4338,7 @@
       <c r="H85" s="46"/>
       <c r="I85" s="44"/>
       <c r="J85" s="46"/>
-      <c r="K85" s="51"/>
+      <c r="K85" s="48"/>
       <c r="L85" s="44"/>
       <c r="M85" s="44"/>
       <c r="N85" s="44"/>
@@ -3480,7 +4361,7 @@
       <c r="H86" s="46"/>
       <c r="I86" s="44"/>
       <c r="J86" s="46"/>
-      <c r="K86" s="51"/>
+      <c r="K86" s="48"/>
       <c r="L86" s="44"/>
       <c r="M86" s="44"/>
       <c r="N86" s="44"/>
@@ -3503,7 +4384,7 @@
       <c r="H87" s="46"/>
       <c r="I87" s="44"/>
       <c r="J87" s="46"/>
-      <c r="K87" s="51"/>
+      <c r="K87" s="48"/>
       <c r="L87" s="44"/>
       <c r="M87" s="44"/>
       <c r="N87" s="44"/>
@@ -3526,7 +4407,7 @@
       <c r="H88" s="46"/>
       <c r="I88" s="44"/>
       <c r="J88" s="46"/>
-      <c r="K88" s="51"/>
+      <c r="K88" s="48"/>
       <c r="L88" s="44"/>
       <c r="M88" s="44"/>
       <c r="N88" s="44"/>
@@ -3549,7 +4430,7 @@
       <c r="H89" s="46"/>
       <c r="I89" s="44"/>
       <c r="J89" s="46"/>
-      <c r="K89" s="51"/>
+      <c r="K89" s="48"/>
       <c r="L89" s="44"/>
       <c r="M89" s="44"/>
       <c r="N89" s="44"/>
@@ -3572,7 +4453,7 @@
       <c r="H90" s="46"/>
       <c r="I90" s="44"/>
       <c r="J90" s="46"/>
-      <c r="K90" s="51"/>
+      <c r="K90" s="48"/>
       <c r="L90" s="44"/>
       <c r="M90" s="44"/>
       <c r="N90" s="44"/>
@@ -3595,7 +4476,7 @@
       <c r="H91" s="46"/>
       <c r="I91" s="44"/>
       <c r="J91" s="46"/>
-      <c r="K91" s="51"/>
+      <c r="K91" s="48"/>
       <c r="L91" s="44"/>
       <c r="M91" s="44"/>
       <c r="N91" s="44"/>
@@ -3618,7 +4499,7 @@
       <c r="H92" s="46"/>
       <c r="I92" s="44"/>
       <c r="J92" s="46"/>
-      <c r="K92" s="51"/>
+      <c r="K92" s="48"/>
       <c r="L92" s="44"/>
       <c r="M92" s="44"/>
       <c r="N92" s="44"/>
@@ -3641,7 +4522,7 @@
       <c r="H93" s="46"/>
       <c r="I93" s="44"/>
       <c r="J93" s="46"/>
-      <c r="K93" s="51"/>
+      <c r="K93" s="48"/>
       <c r="L93" s="44"/>
       <c r="M93" s="44"/>
       <c r="N93" s="44"/>
@@ -3664,7 +4545,7 @@
       <c r="H94" s="46"/>
       <c r="I94" s="44"/>
       <c r="J94" s="46"/>
-      <c r="K94" s="51"/>
+      <c r="K94" s="48"/>
       <c r="L94" s="44"/>
       <c r="M94" s="44"/>
       <c r="N94" s="44"/>
@@ -3687,7 +4568,7 @@
       <c r="H95" s="46"/>
       <c r="I95" s="44"/>
       <c r="J95" s="46"/>
-      <c r="K95" s="51"/>
+      <c r="K95" s="48"/>
       <c r="L95" s="44"/>
       <c r="M95" s="44"/>
       <c r="N95" s="44"/>
@@ -3710,7 +4591,7 @@
       <c r="H96" s="46"/>
       <c r="I96" s="44"/>
       <c r="J96" s="46"/>
-      <c r="K96" s="51"/>
+      <c r="K96" s="48"/>
       <c r="L96" s="44"/>
       <c r="M96" s="44"/>
       <c r="N96" s="44"/>
@@ -3733,7 +4614,7 @@
       <c r="H97" s="46"/>
       <c r="I97" s="44"/>
       <c r="J97" s="46"/>
-      <c r="K97" s="51"/>
+      <c r="K97" s="48"/>
       <c r="L97" s="44"/>
       <c r="M97" s="44"/>
       <c r="N97" s="44"/>
@@ -3756,7 +4637,7 @@
       <c r="H98" s="46"/>
       <c r="I98" s="44"/>
       <c r="J98" s="46"/>
-      <c r="K98" s="51"/>
+      <c r="K98" s="48"/>
       <c r="L98" s="44"/>
       <c r="M98" s="44"/>
       <c r="N98" s="44"/>
@@ -3779,7 +4660,7 @@
       <c r="H99" s="46"/>
       <c r="I99" s="44"/>
       <c r="J99" s="46"/>
-      <c r="K99" s="51"/>
+      <c r="K99" s="48"/>
       <c r="L99" s="44"/>
       <c r="M99" s="44"/>
       <c r="N99" s="44"/>
@@ -3802,7 +4683,7 @@
       <c r="H100" s="46"/>
       <c r="I100" s="44"/>
       <c r="J100" s="46"/>
-      <c r="K100" s="51"/>
+      <c r="K100" s="48"/>
       <c r="L100" s="44"/>
       <c r="M100" s="44"/>
       <c r="N100" s="44"/>
@@ -3825,7 +4706,7 @@
       <c r="H101" s="46"/>
       <c r="I101" s="44"/>
       <c r="J101" s="46"/>
-      <c r="K101" s="51"/>
+      <c r="K101" s="48"/>
       <c r="L101" s="44"/>
       <c r="M101" s="44"/>
       <c r="N101" s="44"/>
@@ -3848,7 +4729,7 @@
       <c r="H102" s="46"/>
       <c r="I102" s="44"/>
       <c r="J102" s="46"/>
-      <c r="K102" s="51"/>
+      <c r="K102" s="48"/>
       <c r="L102" s="44"/>
       <c r="M102" s="44"/>
       <c r="N102" s="44"/>
@@ -3871,7 +4752,7 @@
       <c r="H103" s="46"/>
       <c r="I103" s="44"/>
       <c r="J103" s="46"/>
-      <c r="K103" s="51"/>
+      <c r="K103" s="48"/>
       <c r="L103" s="44"/>
       <c r="M103" s="44"/>
       <c r="N103" s="44"/>
@@ -3894,7 +4775,7 @@
       <c r="H104" s="46"/>
       <c r="I104" s="44"/>
       <c r="J104" s="46"/>
-      <c r="K104" s="51"/>
+      <c r="K104" s="48"/>
       <c r="L104" s="44"/>
       <c r="M104" s="44"/>
       <c r="N104" s="44"/>
@@ -3917,7 +4798,7 @@
       <c r="H105" s="46"/>
       <c r="I105" s="44"/>
       <c r="J105" s="46"/>
-      <c r="K105" s="51"/>
+      <c r="K105" s="48"/>
       <c r="L105" s="44"/>
       <c r="M105" s="44"/>
       <c r="N105" s="44"/>
@@ -3940,7 +4821,7 @@
       <c r="H106" s="46"/>
       <c r="I106" s="44"/>
       <c r="J106" s="46"/>
-      <c r="K106" s="51"/>
+      <c r="K106" s="48"/>
       <c r="L106" s="44"/>
       <c r="M106" s="44"/>
       <c r="N106" s="44"/>
@@ -3963,7 +4844,7 @@
       <c r="H107" s="46"/>
       <c r="I107" s="44"/>
       <c r="J107" s="46"/>
-      <c r="K107" s="51"/>
+      <c r="K107" s="48"/>
       <c r="L107" s="44"/>
       <c r="M107" s="44"/>
       <c r="N107" s="44"/>
@@ -3986,7 +4867,7 @@
       <c r="H108" s="46"/>
       <c r="I108" s="44"/>
       <c r="J108" s="46"/>
-      <c r="K108" s="51"/>
+      <c r="K108" s="48"/>
       <c r="L108" s="44"/>
       <c r="M108" s="44"/>
       <c r="N108" s="44"/>
@@ -4009,7 +4890,7 @@
       <c r="H109" s="46"/>
       <c r="I109" s="44"/>
       <c r="J109" s="46"/>
-      <c r="K109" s="51"/>
+      <c r="K109" s="48"/>
       <c r="L109" s="44"/>
       <c r="M109" s="44"/>
       <c r="N109" s="44"/>
@@ -4032,7 +4913,7 @@
       <c r="H110" s="46"/>
       <c r="I110" s="44"/>
       <c r="J110" s="46"/>
-      <c r="K110" s="51"/>
+      <c r="K110" s="48"/>
       <c r="L110" s="44"/>
       <c r="M110" s="44"/>
       <c r="N110" s="44"/>
@@ -4055,7 +4936,7 @@
       <c r="H111" s="46"/>
       <c r="I111" s="44"/>
       <c r="J111" s="46"/>
-      <c r="K111" s="51"/>
+      <c r="K111" s="48"/>
       <c r="L111" s="44"/>
       <c r="M111" s="44"/>
       <c r="N111" s="44"/>
@@ -4078,7 +4959,7 @@
       <c r="H112" s="46"/>
       <c r="I112" s="44"/>
       <c r="J112" s="46"/>
-      <c r="K112" s="51"/>
+      <c r="K112" s="48"/>
       <c r="L112" s="44"/>
       <c r="M112" s="44"/>
       <c r="N112" s="44"/>
@@ -4101,7 +4982,7 @@
       <c r="H113" s="46"/>
       <c r="I113" s="44"/>
       <c r="J113" s="46"/>
-      <c r="K113" s="51"/>
+      <c r="K113" s="48"/>
       <c r="L113" s="44"/>
       <c r="M113" s="44"/>
       <c r="N113" s="44"/>
@@ -4124,7 +5005,7 @@
       <c r="H114" s="46"/>
       <c r="I114" s="44"/>
       <c r="J114" s="46"/>
-      <c r="K114" s="51"/>
+      <c r="K114" s="48"/>
       <c r="L114" s="44"/>
       <c r="M114" s="44"/>
       <c r="N114" s="44"/>
@@ -4147,7 +5028,7 @@
       <c r="H115" s="46"/>
       <c r="I115" s="44"/>
       <c r="J115" s="46"/>
-      <c r="K115" s="51"/>
+      <c r="K115" s="48"/>
       <c r="L115" s="44"/>
       <c r="M115" s="44"/>
       <c r="N115" s="44"/>
@@ -4170,7 +5051,7 @@
       <c r="H116" s="46"/>
       <c r="I116" s="44"/>
       <c r="J116" s="46"/>
-      <c r="K116" s="51"/>
+      <c r="K116" s="48"/>
       <c r="L116" s="44"/>
       <c r="M116" s="44"/>
       <c r="N116" s="44"/>
@@ -4193,7 +5074,7 @@
       <c r="H117" s="46"/>
       <c r="I117" s="44"/>
       <c r="J117" s="46"/>
-      <c r="K117" s="51"/>
+      <c r="K117" s="48"/>
       <c r="L117" s="44"/>
       <c r="M117" s="44"/>
       <c r="N117" s="44"/>
@@ -4216,7 +5097,7 @@
       <c r="H118" s="46"/>
       <c r="I118" s="44"/>
       <c r="J118" s="46"/>
-      <c r="K118" s="51"/>
+      <c r="K118" s="48"/>
       <c r="L118" s="44"/>
       <c r="M118" s="44"/>
       <c r="N118" s="44"/>
@@ -4239,7 +5120,7 @@
       <c r="H119" s="46"/>
       <c r="I119" s="44"/>
       <c r="J119" s="46"/>
-      <c r="K119" s="51"/>
+      <c r="K119" s="48"/>
       <c r="L119" s="44"/>
       <c r="M119" s="44"/>
       <c r="N119" s="44"/>
@@ -4262,7 +5143,7 @@
       <c r="H120" s="46"/>
       <c r="I120" s="44"/>
       <c r="J120" s="46"/>
-      <c r="K120" s="51"/>
+      <c r="K120" s="48"/>
       <c r="L120" s="44"/>
       <c r="M120" s="44"/>
       <c r="N120" s="44"/>
@@ -4285,7 +5166,7 @@
       <c r="H121" s="46"/>
       <c r="I121" s="44"/>
       <c r="J121" s="46"/>
-      <c r="K121" s="51"/>
+      <c r="K121" s="48"/>
       <c r="L121" s="44"/>
       <c r="M121" s="44"/>
       <c r="N121" s="44"/>
@@ -4308,7 +5189,7 @@
       <c r="H122" s="46"/>
       <c r="I122" s="44"/>
       <c r="J122" s="46"/>
-      <c r="K122" s="51"/>
+      <c r="K122" s="48"/>
       <c r="L122" s="44"/>
       <c r="M122" s="44"/>
       <c r="N122" s="44"/>
@@ -4331,7 +5212,7 @@
       <c r="H123" s="46"/>
       <c r="I123" s="44"/>
       <c r="J123" s="46"/>
-      <c r="K123" s="51"/>
+      <c r="K123" s="48"/>
       <c r="L123" s="44"/>
       <c r="M123" s="44"/>
       <c r="N123" s="44"/>
@@ -4354,7 +5235,7 @@
       <c r="H124" s="46"/>
       <c r="I124" s="44"/>
       <c r="J124" s="46"/>
-      <c r="K124" s="51"/>
+      <c r="K124" s="48"/>
       <c r="L124" s="44"/>
       <c r="M124" s="44"/>
       <c r="N124" s="44"/>
@@ -4377,7 +5258,7 @@
       <c r="H125" s="46"/>
       <c r="I125" s="44"/>
       <c r="J125" s="46"/>
-      <c r="K125" s="51"/>
+      <c r="K125" s="48"/>
       <c r="L125" s="44"/>
       <c r="M125" s="44"/>
       <c r="N125" s="44"/>
@@ -4400,7 +5281,7 @@
       <c r="H126" s="46"/>
       <c r="I126" s="44"/>
       <c r="J126" s="46"/>
-      <c r="K126" s="51"/>
+      <c r="K126" s="48"/>
       <c r="L126" s="44"/>
       <c r="M126" s="44"/>
       <c r="N126" s="44"/>
@@ -4423,7 +5304,7 @@
       <c r="H127" s="46"/>
       <c r="I127" s="44"/>
       <c r="J127" s="46"/>
-      <c r="K127" s="51"/>
+      <c r="K127" s="48"/>
       <c r="L127" s="44"/>
       <c r="M127" s="44"/>
       <c r="N127" s="44"/>
@@ -4446,7 +5327,7 @@
       <c r="H128" s="46"/>
       <c r="I128" s="44"/>
       <c r="J128" s="46"/>
-      <c r="K128" s="51"/>
+      <c r="K128" s="48"/>
       <c r="L128" s="44"/>
       <c r="M128" s="44"/>
       <c r="N128" s="44"/>
@@ -4469,7 +5350,7 @@
       <c r="H129" s="46"/>
       <c r="I129" s="44"/>
       <c r="J129" s="46"/>
-      <c r="K129" s="51"/>
+      <c r="K129" s="48"/>
       <c r="L129" s="44"/>
       <c r="M129" s="44"/>
       <c r="N129" s="44"/>
@@ -4492,7 +5373,7 @@
       <c r="H130" s="46"/>
       <c r="I130" s="44"/>
       <c r="J130" s="46"/>
-      <c r="K130" s="51"/>
+      <c r="K130" s="48"/>
       <c r="L130" s="44"/>
       <c r="M130" s="44"/>
       <c r="N130" s="44"/>
@@ -4515,7 +5396,7 @@
       <c r="H131" s="46"/>
       <c r="I131" s="44"/>
       <c r="J131" s="46"/>
-      <c r="K131" s="51"/>
+      <c r="K131" s="48"/>
       <c r="L131" s="44"/>
       <c r="M131" s="44"/>
       <c r="N131" s="44"/>
@@ -4538,7 +5419,7 @@
       <c r="H132" s="46"/>
       <c r="I132" s="44"/>
       <c r="J132" s="46"/>
-      <c r="K132" s="51"/>
+      <c r="K132" s="48"/>
       <c r="L132" s="44"/>
       <c r="M132" s="44"/>
       <c r="N132" s="44"/>
@@ -4561,7 +5442,7 @@
       <c r="H133" s="46"/>
       <c r="I133" s="44"/>
       <c r="J133" s="46"/>
-      <c r="K133" s="51"/>
+      <c r="K133" s="48"/>
       <c r="L133" s="44"/>
       <c r="M133" s="44"/>
       <c r="N133" s="44"/>
@@ -4584,7 +5465,7 @@
       <c r="H134" s="46"/>
       <c r="I134" s="44"/>
       <c r="J134" s="46"/>
-      <c r="K134" s="51"/>
+      <c r="K134" s="48"/>
       <c r="L134" s="44"/>
       <c r="M134" s="44"/>
       <c r="N134" s="44"/>
@@ -4607,7 +5488,7 @@
       <c r="H135" s="46"/>
       <c r="I135" s="44"/>
       <c r="J135" s="46"/>
-      <c r="K135" s="51"/>
+      <c r="K135" s="48"/>
       <c r="L135" s="44"/>
       <c r="M135" s="44"/>
       <c r="N135" s="44"/>
@@ -4627,7 +5508,7 @@
       <c r="H136" s="46"/>
       <c r="I136" s="44"/>
       <c r="J136" s="46"/>
-      <c r="K136" s="51"/>
+      <c r="K136" s="48"/>
       <c r="L136" s="44"/>
       <c r="M136" s="44"/>
       <c r="N136" s="44"/>
@@ -4647,7 +5528,7 @@
       <c r="H137" s="46"/>
       <c r="I137" s="44"/>
       <c r="J137" s="46"/>
-      <c r="K137" s="51"/>
+      <c r="K137" s="48"/>
       <c r="L137" s="44"/>
       <c r="M137" s="44"/>
       <c r="N137" s="44"/>
@@ -4667,7 +5548,7 @@
       <c r="H138" s="46"/>
       <c r="I138" s="44"/>
       <c r="J138" s="46"/>
-      <c r="K138" s="51"/>
+      <c r="K138" s="48"/>
       <c r="L138" s="44"/>
       <c r="M138" s="44"/>
       <c r="N138" s="44"/>
@@ -4687,7 +5568,7 @@
       <c r="H139" s="46"/>
       <c r="I139" s="44"/>
       <c r="J139" s="46"/>
-      <c r="K139" s="51"/>
+      <c r="K139" s="48"/>
       <c r="L139" s="44"/>
       <c r="M139" s="44"/>
       <c r="N139" s="44"/>
@@ -4707,7 +5588,7 @@
       <c r="H140" s="46"/>
       <c r="I140" s="44"/>
       <c r="J140" s="46"/>
-      <c r="K140" s="51"/>
+      <c r="K140" s="48"/>
       <c r="L140" s="44"/>
       <c r="M140" s="44"/>
       <c r="N140" s="44"/>
@@ -4727,7 +5608,7 @@
       <c r="H141" s="46"/>
       <c r="I141" s="44"/>
       <c r="J141" s="46"/>
-      <c r="K141" s="51"/>
+      <c r="K141" s="48"/>
       <c r="L141" s="44"/>
       <c r="M141" s="44"/>
       <c r="N141" s="44"/>
@@ -4747,7 +5628,7 @@
       <c r="H142" s="46"/>
       <c r="I142" s="44"/>
       <c r="J142" s="46"/>
-      <c r="K142" s="51"/>
+      <c r="K142" s="48"/>
       <c r="L142" s="44"/>
       <c r="M142" s="44"/>
       <c r="N142" s="44"/>
@@ -4767,7 +5648,7 @@
       <c r="H143" s="46"/>
       <c r="I143" s="44"/>
       <c r="J143" s="46"/>
-      <c r="K143" s="51"/>
+      <c r="K143" s="48"/>
       <c r="L143" s="44"/>
       <c r="M143" s="44"/>
       <c r="N143" s="44"/>
@@ -4787,7 +5668,7 @@
       <c r="H144" s="46"/>
       <c r="I144" s="44"/>
       <c r="J144" s="46"/>
-      <c r="K144" s="51"/>
+      <c r="K144" s="48"/>
       <c r="L144" s="44"/>
       <c r="M144" s="44"/>
       <c r="N144" s="44"/>
@@ -4807,7 +5688,7 @@
       <c r="H145" s="46"/>
       <c r="I145" s="44"/>
       <c r="J145" s="46"/>
-      <c r="K145" s="51"/>
+      <c r="K145" s="48"/>
       <c r="L145" s="44"/>
       <c r="M145" s="44"/>
       <c r="N145" s="44"/>
@@ -4827,7 +5708,7 @@
       <c r="H146" s="46"/>
       <c r="I146" s="44"/>
       <c r="J146" s="46"/>
-      <c r="K146" s="51"/>
+      <c r="K146" s="48"/>
       <c r="L146" s="44"/>
       <c r="M146" s="44"/>
       <c r="N146" s="44"/>
@@ -4847,7 +5728,7 @@
       <c r="H147" s="46"/>
       <c r="I147" s="44"/>
       <c r="J147" s="46"/>
-      <c r="K147" s="51"/>
+      <c r="K147" s="48"/>
       <c r="L147" s="44"/>
       <c r="M147" s="44"/>
       <c r="N147" s="44"/>
@@ -4867,7 +5748,7 @@
       <c r="H148" s="46"/>
       <c r="I148" s="44"/>
       <c r="J148" s="46"/>
-      <c r="K148" s="51"/>
+      <c r="K148" s="48"/>
       <c r="L148" s="44"/>
       <c r="M148" s="44"/>
       <c r="N148" s="44"/>
@@ -4887,7 +5768,7 @@
       <c r="H149" s="46"/>
       <c r="I149" s="44"/>
       <c r="J149" s="46"/>
-      <c r="K149" s="51"/>
+      <c r="K149" s="48"/>
       <c r="L149" s="44"/>
       <c r="M149" s="44"/>
       <c r="N149" s="44"/>
@@ -4907,7 +5788,7 @@
       <c r="H150" s="46"/>
       <c r="I150" s="44"/>
       <c r="J150" s="46"/>
-      <c r="K150" s="51"/>
+      <c r="K150" s="48"/>
       <c r="L150" s="44"/>
       <c r="M150" s="44"/>
       <c r="N150" s="44"/>
@@ -4927,7 +5808,7 @@
       <c r="H151" s="46"/>
       <c r="I151" s="44"/>
       <c r="J151" s="46"/>
-      <c r="K151" s="51"/>
+      <c r="K151" s="48"/>
       <c r="L151" s="44"/>
       <c r="M151" s="44"/>
       <c r="N151" s="44"/>
@@ -4947,7 +5828,7 @@
       <c r="H152" s="46"/>
       <c r="I152" s="44"/>
       <c r="J152" s="46"/>
-      <c r="K152" s="51"/>
+      <c r="K152" s="48"/>
       <c r="L152" s="44"/>
       <c r="M152" s="44"/>
       <c r="N152" s="44"/>
@@ -4967,7 +5848,7 @@
       <c r="H153" s="46"/>
       <c r="I153" s="44"/>
       <c r="J153" s="46"/>
-      <c r="K153" s="51"/>
+      <c r="K153" s="48"/>
       <c r="L153" s="44"/>
       <c r="M153" s="44"/>
       <c r="N153" s="44"/>
@@ -4987,7 +5868,7 @@
       <c r="H154" s="46"/>
       <c r="I154" s="44"/>
       <c r="J154" s="46"/>
-      <c r="K154" s="51"/>
+      <c r="K154" s="48"/>
       <c r="L154" s="44"/>
       <c r="M154" s="44"/>
       <c r="N154" s="44"/>
@@ -5007,7 +5888,7 @@
       <c r="H155" s="46"/>
       <c r="I155" s="44"/>
       <c r="J155" s="46"/>
-      <c r="K155" s="51"/>
+      <c r="K155" s="48"/>
       <c r="L155" s="44"/>
       <c r="M155" s="44"/>
       <c r="N155" s="44"/>
@@ -5027,7 +5908,7 @@
       <c r="H156" s="46"/>
       <c r="I156" s="44"/>
       <c r="J156" s="46"/>
-      <c r="K156" s="51"/>
+      <c r="K156" s="48"/>
       <c r="L156" s="44"/>
       <c r="M156" s="44"/>
       <c r="N156" s="44"/>
@@ -5047,7 +5928,7 @@
       <c r="H157" s="46"/>
       <c r="I157" s="44"/>
       <c r="J157" s="46"/>
-      <c r="K157" s="51"/>
+      <c r="K157" s="48"/>
       <c r="L157" s="44"/>
       <c r="M157" s="44"/>
       <c r="N157" s="44"/>
@@ -5067,7 +5948,7 @@
       <c r="H158" s="46"/>
       <c r="I158" s="44"/>
       <c r="J158" s="46"/>
-      <c r="K158" s="51"/>
+      <c r="K158" s="48"/>
       <c r="L158" s="44"/>
       <c r="M158" s="44"/>
       <c r="N158" s="44"/>
@@ -5087,7 +5968,7 @@
       <c r="H159" s="46"/>
       <c r="I159" s="44"/>
       <c r="J159" s="46"/>
-      <c r="K159" s="51"/>
+      <c r="K159" s="48"/>
       <c r="L159" s="44"/>
       <c r="M159" s="44"/>
       <c r="N159" s="44"/>
@@ -5107,7 +5988,7 @@
       <c r="H160" s="46"/>
       <c r="I160" s="44"/>
       <c r="J160" s="46"/>
-      <c r="K160" s="51"/>
+      <c r="K160" s="48"/>
       <c r="L160" s="44"/>
       <c r="M160" s="44"/>
       <c r="N160" s="44"/>
@@ -5127,7 +6008,7 @@
       <c r="H161" s="46"/>
       <c r="I161" s="44"/>
       <c r="J161" s="46"/>
-      <c r="K161" s="51"/>
+      <c r="K161" s="48"/>
       <c r="L161" s="44"/>
       <c r="M161" s="44"/>
       <c r="N161" s="44"/>
@@ -5147,7 +6028,7 @@
       <c r="H162" s="46"/>
       <c r="I162" s="44"/>
       <c r="J162" s="46"/>
-      <c r="K162" s="51"/>
+      <c r="K162" s="48"/>
       <c r="L162" s="44"/>
       <c r="M162" s="44"/>
       <c r="N162" s="44"/>
@@ -5167,7 +6048,7 @@
       <c r="H163" s="46"/>
       <c r="I163" s="44"/>
       <c r="J163" s="46"/>
-      <c r="K163" s="51"/>
+      <c r="K163" s="48"/>
       <c r="L163" s="44"/>
       <c r="M163" s="44"/>
       <c r="N163" s="44"/>
@@ -5187,7 +6068,7 @@
       <c r="H164" s="46"/>
       <c r="I164" s="44"/>
       <c r="J164" s="46"/>
-      <c r="K164" s="51"/>
+      <c r="K164" s="48"/>
       <c r="L164" s="44"/>
       <c r="M164" s="44"/>
       <c r="N164" s="44"/>
@@ -5207,7 +6088,7 @@
       <c r="H165" s="46"/>
       <c r="I165" s="44"/>
       <c r="J165" s="46"/>
-      <c r="K165" s="51"/>
+      <c r="K165" s="48"/>
       <c r="L165" s="44"/>
       <c r="M165" s="44"/>
       <c r="N165" s="44"/>
@@ -5227,7 +6108,7 @@
       <c r="H166" s="46"/>
       <c r="I166" s="44"/>
       <c r="J166" s="46"/>
-      <c r="K166" s="51"/>
+      <c r="K166" s="48"/>
       <c r="L166" s="44"/>
       <c r="M166" s="44"/>
       <c r="N166" s="44"/>
@@ -5247,7 +6128,7 @@
       <c r="H167" s="46"/>
       <c r="I167" s="44"/>
       <c r="J167" s="46"/>
-      <c r="K167" s="51"/>
+      <c r="K167" s="48"/>
       <c r="L167" s="44"/>
       <c r="M167" s="44"/>
       <c r="N167" s="44"/>
@@ -5267,7 +6148,7 @@
       <c r="H168" s="46"/>
       <c r="I168" s="44"/>
       <c r="J168" s="46"/>
-      <c r="K168" s="51"/>
+      <c r="K168" s="48"/>
       <c r="L168" s="44"/>
       <c r="M168" s="44"/>
       <c r="N168" s="44"/>
@@ -5287,7 +6168,7 @@
       <c r="H169" s="46"/>
       <c r="I169" s="44"/>
       <c r="J169" s="46"/>
-      <c r="K169" s="51"/>
+      <c r="K169" s="48"/>
       <c r="L169" s="44"/>
       <c r="M169" s="44"/>
       <c r="N169" s="44"/>
@@ -5302,7 +6183,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 T1:T1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 T1:T1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5355,120 +6236,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="59" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -5497,19 +6378,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5547,8 +6428,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5560,8 +6441,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5573,8 +6454,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5586,8 +6467,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5599,8 +6480,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5612,8 +6493,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5625,8 +6506,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5638,8 +6519,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5700,36 +6581,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6014,36 +6895,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6328,36 +7209,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6644,36 +7525,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.1.7.2 20161215/版本Bug和特性计划及评审表v5.1.7.2.xlsx
+++ b/VersionRecords/Version 5.1.7.2 20161215/版本Bug和特性计划及评审表v5.1.7.2.xlsx
@@ -1246,6 +1246,81 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1272,81 +1347,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1734,7 +1734,7 @@
   <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1887,144 +1887,144 @@
       <c r="V2" s="51"/>
     </row>
     <row r="3" spans="1:22" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88">
-        <v>1</v>
-      </c>
-      <c r="B3" s="88" t="s">
+      <c r="A3" s="73">
+        <v>2</v>
+      </c>
+      <c r="B3" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="91" t="s">
+      <c r="G3" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="92">
+      <c r="H3" s="83">
         <v>42719</v>
       </c>
-      <c r="I3" s="92" t="s">
+      <c r="I3" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="92">
+      <c r="J3" s="83">
         <v>42719</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="93" t="s">
+      <c r="K3" s="82"/>
+      <c r="L3" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="93" t="s">
+      <c r="M3" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="91"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="95">
+      <c r="N3" s="82"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="86">
         <v>6553</v>
       </c>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="96"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="87"/>
       <c r="V3" s="51"/>
     </row>
     <row r="4" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="88">
-        <v>2</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="73">
+        <v>3</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="92">
+      <c r="H4" s="83">
         <v>42719</v>
       </c>
-      <c r="I4" s="92" t="s">
+      <c r="I4" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="92">
+      <c r="J4" s="83">
         <v>42719</v>
       </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="93" t="s">
+      <c r="K4" s="82"/>
+      <c r="L4" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="M4" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="97"/>
+      <c r="N4" s="88"/>
       <c r="O4" s="44"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="93"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="84"/>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
       <c r="T4" s="44"/>
       <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:22" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="88">
-        <v>3</v>
-      </c>
-      <c r="B5" s="88" t="s">
+      <c r="A5" s="73">
+        <v>4</v>
+      </c>
+      <c r="B5" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="91" t="s">
+      <c r="F5" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="91" t="s">
+      <c r="G5" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="92">
+      <c r="H5" s="83">
         <v>42719</v>
       </c>
-      <c r="I5" s="92" t="s">
+      <c r="I5" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="92">
+      <c r="J5" s="83">
         <v>42719</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="93" t="s">
+      <c r="K5" s="82"/>
+      <c r="L5" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="93" t="s">
+      <c r="M5" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="N5" s="97"/>
+      <c r="N5" s="88"/>
       <c r="O5" s="44"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="93"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="84"/>
       <c r="R5" s="44">
         <v>6554</v>
       </c>
@@ -2033,193 +2033,193 @@
       <c r="U5" s="45"/>
     </row>
     <row r="6" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="88">
-        <v>4</v>
-      </c>
-      <c r="B6" s="88" t="s">
+      <c r="A6" s="73">
+        <v>5</v>
+      </c>
+      <c r="B6" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="92">
+      <c r="H6" s="83">
         <v>42719</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="92">
+      <c r="J6" s="83">
         <v>42719</v>
       </c>
-      <c r="K6" s="91"/>
-      <c r="L6" s="93" t="s">
+      <c r="K6" s="82"/>
+      <c r="L6" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="93" t="s">
+      <c r="M6" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="97"/>
+      <c r="N6" s="88"/>
       <c r="O6" s="44"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="99"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="90"/>
       <c r="R6" s="44"/>
       <c r="S6" s="44"/>
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:22" s="105" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="88">
-        <v>5</v>
-      </c>
-      <c r="B7" s="88" t="s">
+    <row r="7" spans="1:22" s="96" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="73">
+        <v>6</v>
+      </c>
+      <c r="B7" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="88" t="s">
+      <c r="F7" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="88" t="s">
+      <c r="G7" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="92">
+      <c r="H7" s="83">
         <v>42719</v>
       </c>
-      <c r="I7" s="101" t="s">
+      <c r="I7" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="92">
+      <c r="J7" s="83">
         <v>42719</v>
       </c>
-      <c r="K7" s="88"/>
-      <c r="L7" s="93" t="s">
+      <c r="K7" s="79"/>
+      <c r="L7" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="93" t="s">
+      <c r="M7" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="97"/>
+      <c r="N7" s="88"/>
       <c r="O7" s="44"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="99"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="90"/>
       <c r="R7" s="44">
         <v>6555</v>
       </c>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="103" t="s">
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="V7" s="104"/>
+      <c r="V7" s="95"/>
     </row>
     <row r="8" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="88">
-        <v>6</v>
-      </c>
-      <c r="B8" s="88" t="s">
+      <c r="A8" s="73">
+        <v>7</v>
+      </c>
+      <c r="B8" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="92">
+      <c r="H8" s="83">
         <v>42719</v>
       </c>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="92">
+      <c r="J8" s="83">
         <v>42719</v>
       </c>
-      <c r="K8" s="91"/>
-      <c r="L8" s="93" t="s">
+      <c r="K8" s="82"/>
+      <c r="L8" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="93" t="s">
+      <c r="M8" s="84" t="s">
         <v>87</v>
       </c>
       <c r="N8" s="44"/>
       <c r="O8" s="44"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="99"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="90"/>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
       <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:22" ht="33" x14ac:dyDescent="0.15">
-      <c r="A9" s="88">
-        <v>7</v>
-      </c>
-      <c r="B9" s="88" t="s">
+      <c r="A9" s="73">
+        <v>8</v>
+      </c>
+      <c r="B9" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="F9" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="91" t="s">
+      <c r="G9" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="83">
         <v>42719</v>
       </c>
-      <c r="I9" s="92" t="s">
+      <c r="I9" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="92">
+      <c r="J9" s="83">
         <v>42719</v>
       </c>
-      <c r="K9" s="91"/>
-      <c r="L9" s="93" t="s">
+      <c r="K9" s="82"/>
+      <c r="L9" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="93" t="s">
+      <c r="M9" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="97"/>
+      <c r="N9" s="88"/>
       <c r="O9" s="44"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="99"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="90"/>
       <c r="R9" s="44">
         <v>6499</v>
       </c>
@@ -2227,59 +2227,59 @@
       <c r="T9" s="44"/>
       <c r="U9" s="45"/>
     </row>
-    <row r="10" spans="1:22" s="110" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="88">
-        <v>8</v>
-      </c>
-      <c r="B10" s="88" t="s">
+    <row r="10" spans="1:22" s="101" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="73">
+        <v>9</v>
+      </c>
+      <c r="B10" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="F10" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="91" t="s">
+      <c r="G10" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="92">
+      <c r="H10" s="83">
         <v>42719</v>
       </c>
-      <c r="I10" s="92" t="s">
+      <c r="I10" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J10" s="83">
         <v>42719</v>
       </c>
-      <c r="K10" s="90"/>
-      <c r="L10" s="107" t="s">
+      <c r="K10" s="81"/>
+      <c r="L10" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="M10" s="93" t="s">
+      <c r="M10" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="108">
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="99">
         <v>6407</v>
       </c>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="109"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="100"/>
     </row>
     <row r="11" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="73">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" s="73" t="s">
         <v>72</v>
@@ -2330,12 +2330,12 @@
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="111"/>
+      <c r="U11" s="102"/>
       <c r="V11" s="51"/>
     </row>
     <row r="12" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="73">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B12" s="73" t="s">
         <v>72</v>
@@ -2386,12 +2386,12 @@
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="111"/>
+      <c r="U12" s="102"/>
       <c r="V12" s="51"/>
     </row>
     <row r="13" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="73">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B13" s="73" t="s">
         <v>72</v>
@@ -2444,12 +2444,12 @@
       </c>
       <c r="S13" s="44"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="111"/>
+      <c r="U13" s="102"/>
       <c r="V13" s="51"/>
     </row>
     <row r="14" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A14" s="73">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B14" s="73" t="s">
         <v>72</v>
@@ -2502,12 +2502,12 @@
       </c>
       <c r="S14" s="44"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="111"/>
+      <c r="U14" s="102"/>
       <c r="V14" s="51"/>
     </row>
     <row r="15" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A15" s="73">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B15" s="73" t="s">
         <v>72</v>
@@ -2515,7 +2515,7 @@
       <c r="C15" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="112" t="s">
+      <c r="D15" s="103" t="s">
         <v>126</v>
       </c>
       <c r="E15" s="75" t="s">
@@ -2560,12 +2560,12 @@
       </c>
       <c r="S15" s="53"/>
       <c r="T15" s="49"/>
-      <c r="U15" s="111"/>
+      <c r="U15" s="102"/>
       <c r="V15" s="51"/>
     </row>
     <row r="16" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A16" s="73">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B16" s="73" t="s">
         <v>72</v>
@@ -2618,12 +2618,12 @@
       </c>
       <c r="S16" s="44"/>
       <c r="T16" s="49"/>
-      <c r="U16" s="111"/>
+      <c r="U16" s="102"/>
       <c r="V16" s="51"/>
     </row>
     <row r="17" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A17" s="73">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B17" s="73" t="s">
         <v>72</v>
@@ -2676,12 +2676,12 @@
       </c>
       <c r="S17" s="44"/>
       <c r="T17" s="49"/>
-      <c r="U17" s="111"/>
+      <c r="U17" s="102"/>
       <c r="V17" s="51"/>
     </row>
     <row r="18" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A18" s="73">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B18" s="73" t="s">
         <v>72</v>
@@ -2734,12 +2734,12 @@
       </c>
       <c r="S18" s="44"/>
       <c r="T18" s="49"/>
-      <c r="U18" s="111"/>
+      <c r="U18" s="102"/>
       <c r="V18" s="51"/>
     </row>
     <row r="19" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A19" s="73">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B19" s="73" t="s">
         <v>72</v>
@@ -2792,12 +2792,12 @@
       </c>
       <c r="S19" s="44"/>
       <c r="T19" s="49"/>
-      <c r="U19" s="111"/>
+      <c r="U19" s="102"/>
       <c r="V19" s="51"/>
     </row>
     <row r="20" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A20" s="73">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B20" s="73" t="s">
         <v>72</v>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
-      <c r="U20" s="111"/>
+      <c r="U20" s="102"/>
       <c r="V20" s="51"/>
     </row>
     <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
@@ -6378,19 +6378,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6428,8 +6428,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6441,8 +6441,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6454,8 +6454,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6467,8 +6467,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6480,8 +6480,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6493,8 +6493,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6506,8 +6506,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6519,8 +6519,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6581,36 +6581,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6895,36 +6895,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7209,36 +7209,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7525,36 +7525,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.1.7.2 20161215/版本Bug和特性计划及评审表v5.1.7.2.xlsx
+++ b/VersionRecords/Version 5.1.7.2 20161215/版本Bug和特性计划及评审表v5.1.7.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.1.7.2 20161215\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.1.7.2 20161215\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="148">
   <si>
     <t>No</t>
   </si>
@@ -387,10 +387,6 @@
   </si>
   <si>
     <t>renter</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>底部导航需修改不影响此功能，已录入禅道 bug 6217</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -564,6 +560,62 @@
     <t>订单列表点击联系房东按钮不显示房东姓名</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊岐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊岐/吴永余</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部导航需修改不影响此功能，已录入禅道 bug 6217</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -581,6 +633,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -588,6 +641,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -595,12 +649,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -608,6 +664,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -615,12 +672,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -628,23 +687,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -652,22 +715,26 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -743,7 +810,8 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -755,7 +823,8 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1008,7 +1077,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1264,18 +1333,6 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1347,6 +1404,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1734,7 +1797,7 @@
   <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1924,16 +1987,24 @@
       <c r="M3" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="82"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="86">
+      <c r="N3" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="P3" s="39">
+        <v>42719</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="R3" s="110">
         <v>6553</v>
       </c>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="87"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="52"/>
       <c r="V3" s="51"/>
     </row>
     <row r="4" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1974,10 +2045,18 @@
       <c r="M4" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="88"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="84"/>
+      <c r="N4" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" s="39">
+        <v>42719</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>138</v>
+      </c>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
       <c r="T4" s="44"/>
@@ -1993,7 +2072,7 @@
       <c r="C5" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="85" t="s">
         <v>94</v>
       </c>
       <c r="E5" s="81" t="s">
@@ -2021,10 +2100,18 @@
       <c r="M5" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="N5" s="88"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="84"/>
+      <c r="N5" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="39">
+        <v>42719</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>140</v>
+      </c>
       <c r="R5" s="44">
         <v>6554</v>
       </c>
@@ -2042,7 +2129,7 @@
       <c r="C6" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="85" t="s">
         <v>99</v>
       </c>
       <c r="E6" s="82" t="s">
@@ -2070,16 +2157,24 @@
       <c r="M6" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="88"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="90"/>
+      <c r="N6" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="39">
+        <v>42719</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>136</v>
+      </c>
       <c r="R6" s="44"/>
       <c r="S6" s="44"/>
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:22" s="96" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="92" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="73">
         <v>6</v>
       </c>
@@ -2089,7 +2184,7 @@
       <c r="C7" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="87" t="s">
         <v>102</v>
       </c>
       <c r="E7" s="81" t="s">
@@ -2104,7 +2199,7 @@
       <c r="H7" s="83">
         <v>42719</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="88" t="s">
         <v>92</v>
       </c>
       <c r="J7" s="83">
@@ -2117,19 +2212,27 @@
       <c r="M7" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="88"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="90"/>
+      <c r="N7" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="39">
+        <v>42719</v>
+      </c>
+      <c r="Q7" s="47" t="s">
+        <v>136</v>
+      </c>
       <c r="R7" s="44">
         <v>6555</v>
       </c>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="V7" s="95"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="V7" s="91"/>
     </row>
     <row r="8" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="73">
@@ -2141,8 +2244,8 @@
       <c r="C8" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="89" t="s">
-        <v>105</v>
+      <c r="D8" s="85" t="s">
+        <v>104</v>
       </c>
       <c r="E8" s="82" t="s">
         <v>90</v>
@@ -2169,10 +2272,18 @@
       <c r="M8" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="90"/>
+      <c r="N8" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="39">
+        <v>42719</v>
+      </c>
+      <c r="Q8" s="47" t="s">
+        <v>136</v>
+      </c>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
@@ -2183,19 +2294,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="89" t="s">
-        <v>107</v>
+      <c r="D9" s="85" t="s">
+        <v>106</v>
       </c>
       <c r="E9" s="81" t="s">
         <v>83</v>
       </c>
       <c r="F9" s="79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" s="82" t="s">
         <v>92</v>
@@ -2211,15 +2322,23 @@
       </c>
       <c r="K9" s="82"/>
       <c r="L9" s="84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M9" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="88"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="90"/>
+      <c r="N9" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="O9" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="P9" s="39">
+        <v>42719</v>
+      </c>
+      <c r="Q9" s="47" t="s">
+        <v>136</v>
+      </c>
       <c r="R9" s="44">
         <v>6499</v>
       </c>
@@ -2227,7 +2346,7 @@
       <c r="T9" s="44"/>
       <c r="U9" s="45"/>
     </row>
-    <row r="10" spans="1:22" s="101" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="97" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="73">
         <v>9</v>
       </c>
@@ -2237,14 +2356,14 @@
       <c r="C10" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="81" t="s">
-        <v>111</v>
-      </c>
       <c r="F10" s="79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10" s="82" t="s">
         <v>92</v>
@@ -2259,23 +2378,31 @@
         <v>42719</v>
       </c>
       <c r="K10" s="81"/>
-      <c r="L10" s="98" t="s">
+      <c r="L10" s="94" t="s">
         <v>101</v>
       </c>
       <c r="M10" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="99">
+      <c r="N10" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="O10" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="39">
+        <v>42719</v>
+      </c>
+      <c r="Q10" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="R10" s="95">
         <v>6407</v>
       </c>
-      <c r="S10" s="99"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="100"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="96"/>
     </row>
     <row r="11" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="73">
@@ -2285,16 +2412,16 @@
         <v>72</v>
       </c>
       <c r="C11" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="74" t="s">
         <v>112</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>113</v>
       </c>
       <c r="E11" s="75" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" s="75" t="s">
         <v>69</v>
@@ -2310,13 +2437,13 @@
       </c>
       <c r="K11" s="75"/>
       <c r="L11" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="M11" s="75" t="s">
+      <c r="N11" s="75" t="s">
         <v>116</v>
-      </c>
-      <c r="N11" s="75" t="s">
-        <v>117</v>
       </c>
       <c r="O11" s="77" t="s">
         <v>70</v>
@@ -2330,7 +2457,7 @@
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="102"/>
+      <c r="U11" s="98"/>
       <c r="V11" s="51"/>
     </row>
     <row r="12" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
@@ -2341,16 +2468,16 @@
         <v>72</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="75" t="s">
         <v>74</v>
       </c>
       <c r="F12" s="75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G12" s="75" t="s">
         <v>69</v>
@@ -2366,13 +2493,13 @@
       </c>
       <c r="K12" s="75"/>
       <c r="L12" s="77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M12" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" s="75" t="s">
         <v>116</v>
-      </c>
-      <c r="N12" s="75" t="s">
-        <v>117</v>
       </c>
       <c r="O12" s="77" t="s">
         <v>70</v>
@@ -2386,7 +2513,7 @@
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="102"/>
+      <c r="U12" s="98"/>
       <c r="V12" s="51"/>
     </row>
     <row r="13" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
@@ -2397,16 +2524,16 @@
         <v>72</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="F13" s="75" t="s">
         <v>122</v>
-      </c>
-      <c r="F13" s="75" t="s">
-        <v>123</v>
       </c>
       <c r="G13" s="75" t="s">
         <v>69</v>
@@ -2422,13 +2549,13 @@
       </c>
       <c r="K13" s="75"/>
       <c r="L13" s="77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M13" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="N13" s="75" t="s">
         <v>116</v>
-      </c>
-      <c r="N13" s="75" t="s">
-        <v>117</v>
       </c>
       <c r="O13" s="77" t="s">
         <v>70</v>
@@ -2444,7 +2571,7 @@
       </c>
       <c r="S13" s="44"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="102"/>
+      <c r="U13" s="98"/>
       <c r="V13" s="51"/>
     </row>
     <row r="14" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
@@ -2458,13 +2585,13 @@
         <v>68</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="75" t="s">
         <v>122</v>
-      </c>
-      <c r="F14" s="75" t="s">
-        <v>123</v>
       </c>
       <c r="G14" s="75" t="s">
         <v>69</v>
@@ -2480,13 +2607,13 @@
       </c>
       <c r="K14" s="75"/>
       <c r="L14" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="M14" s="75" t="s">
+      <c r="N14" s="75" t="s">
         <v>116</v>
-      </c>
-      <c r="N14" s="75" t="s">
-        <v>117</v>
       </c>
       <c r="O14" s="77" t="s">
         <v>70</v>
@@ -2502,7 +2629,7 @@
       </c>
       <c r="S14" s="44"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="102"/>
+      <c r="U14" s="98"/>
       <c r="V14" s="51"/>
     </row>
     <row r="15" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
@@ -2513,16 +2640,16 @@
         <v>72</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="75" t="s">
         <v>126</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="75" t="s">
-        <v>127</v>
       </c>
       <c r="G15" s="75" t="s">
         <v>69</v>
@@ -2538,13 +2665,13 @@
       </c>
       <c r="K15" s="75"/>
       <c r="L15" s="77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M15" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" s="75" t="s">
         <v>116</v>
-      </c>
-      <c r="N15" s="75" t="s">
-        <v>117</v>
       </c>
       <c r="O15" s="77" t="s">
         <v>70</v>
@@ -2560,7 +2687,7 @@
       </c>
       <c r="S15" s="53"/>
       <c r="T15" s="49"/>
-      <c r="U15" s="102"/>
+      <c r="U15" s="98"/>
       <c r="V15" s="51"/>
     </row>
     <row r="16" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
@@ -2574,13 +2701,13 @@
         <v>68</v>
       </c>
       <c r="D16" s="74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="75" t="s">
         <v>122</v>
-      </c>
-      <c r="F16" s="75" t="s">
-        <v>123</v>
       </c>
       <c r="G16" s="75" t="s">
         <v>69</v>
@@ -2596,13 +2723,13 @@
       </c>
       <c r="K16" s="75"/>
       <c r="L16" s="77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M16" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="N16" s="75" t="s">
         <v>116</v>
-      </c>
-      <c r="N16" s="75" t="s">
-        <v>117</v>
       </c>
       <c r="O16" s="77" t="s">
         <v>70</v>
@@ -2618,7 +2745,7 @@
       </c>
       <c r="S16" s="44"/>
       <c r="T16" s="49"/>
-      <c r="U16" s="102"/>
+      <c r="U16" s="98"/>
       <c r="V16" s="51"/>
     </row>
     <row r="17" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
@@ -2629,16 +2756,16 @@
         <v>72</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="75" t="s">
         <v>122</v>
-      </c>
-      <c r="F17" s="75" t="s">
-        <v>123</v>
       </c>
       <c r="G17" s="75" t="s">
         <v>69</v>
@@ -2654,13 +2781,13 @@
       </c>
       <c r="K17" s="75"/>
       <c r="L17" s="77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M17" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" s="75" t="s">
         <v>116</v>
-      </c>
-      <c r="N17" s="75" t="s">
-        <v>117</v>
       </c>
       <c r="O17" s="77" t="s">
         <v>70</v>
@@ -2676,7 +2803,7 @@
       </c>
       <c r="S17" s="44"/>
       <c r="T17" s="49"/>
-      <c r="U17" s="102"/>
+      <c r="U17" s="98"/>
       <c r="V17" s="51"/>
     </row>
     <row r="18" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
@@ -2687,16 +2814,16 @@
         <v>72</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="75" t="s">
         <v>130</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>131</v>
       </c>
       <c r="G18" s="75" t="s">
         <v>69</v>
@@ -2712,13 +2839,13 @@
       </c>
       <c r="K18" s="75"/>
       <c r="L18" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="M18" s="75" t="s">
-        <v>116</v>
-      </c>
       <c r="N18" s="75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O18" s="77" t="s">
         <v>70</v>
@@ -2734,7 +2861,7 @@
       </c>
       <c r="S18" s="44"/>
       <c r="T18" s="49"/>
-      <c r="U18" s="102"/>
+      <c r="U18" s="98"/>
       <c r="V18" s="51"/>
     </row>
     <row r="19" spans="1:22" s="31" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
@@ -2745,16 +2872,16 @@
         <v>72</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F19" s="75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G19" s="75" t="s">
         <v>69</v>
@@ -2770,13 +2897,13 @@
       </c>
       <c r="K19" s="75"/>
       <c r="L19" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="M19" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="M19" s="75" t="s">
-        <v>116</v>
-      </c>
       <c r="N19" s="75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O19" s="77" t="s">
         <v>70</v>
@@ -2792,7 +2919,7 @@
       </c>
       <c r="S19" s="44"/>
       <c r="T19" s="49"/>
-      <c r="U19" s="102"/>
+      <c r="U19" s="98"/>
       <c r="V19" s="51"/>
     </row>
     <row r="20" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
@@ -2803,16 +2930,16 @@
         <v>72</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" s="74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" s="75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F20" s="75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="75" t="s">
         <v>69</v>
@@ -2828,13 +2955,13 @@
       </c>
       <c r="K20" s="75"/>
       <c r="L20" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="M20" s="75" t="s">
-        <v>116</v>
-      </c>
       <c r="N20" s="75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O20" s="77" t="s">
         <v>70</v>
@@ -2850,7 +2977,7 @@
       </c>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
-      <c r="U20" s="102"/>
+      <c r="U20" s="98"/>
       <c r="V20" s="51"/>
     </row>
     <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
@@ -6378,19 +6505,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6428,8 +6555,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6441,8 +6568,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6454,8 +6581,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6467,8 +6594,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6480,8 +6607,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6493,8 +6620,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6506,8 +6633,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6519,8 +6646,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6581,36 +6708,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="112"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6895,36 +7022,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="112"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7209,36 +7336,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="112"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7525,36 +7652,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="112"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
